--- a/my_project/common_syntax.xlsx
+++ b/my_project/common_syntax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,183 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>Язык программирования</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>Общие синтаксические конструкции:</t>
+  </si>
+  <si>
+    <t>условный оператор if-else</t>
+  </si>
+  <si>
+    <t>switch…case</t>
+  </si>
+  <si>
+    <t>C++ примеры</t>
+  </si>
+  <si>
+    <t>Python примеры</t>
+  </si>
+  <si>
+    <t>Haskell примеры</t>
+  </si>
+  <si>
+    <t>Уникальные синтаксические конструкции</t>
+  </si>
+  <si>
+    <t>цикл while</t>
+  </si>
+  <si>
+    <t>отсутствует</t>
+  </si>
+  <si>
+    <t>if (условие) {
+    тело оператора
+} else {
+    тело оператора
+}</t>
+  </si>
+  <si>
+    <t>if условие:
+    тело оператора
+else:
+    тело оператора</t>
+  </si>
+  <si>
+    <t>if условие
+    then тело оператора
+    else тело оператора</t>
+  </si>
+  <si>
+    <t>let..in</t>
+  </si>
+  <si>
+    <t>while (условие) {
+    тело оператора
+}</t>
+  </si>
+  <si>
+    <t>while условие:
+    тело оператора</t>
+  </si>
+  <si>
+    <t>if (x &lt; 2) {
+    std::cout &lt;&lt; x &lt;&lt; "&lt; 2";
+} else {
+    std::cout &lt;&lt; x &lt;&lt; "&gt;= 2";
+}</t>
+  </si>
+  <si>
+    <t>g x y = (if x == 0 then x else y)*y</t>
+  </si>
+  <si>
+    <t>if x &lt; 5:
+    x = 5
+else:
+    x -= 1</t>
+  </si>
+  <si>
+    <t>while (true) {
+    x += y;
+    if (x &lt;= 100) {
+        break;
+    }
+}</t>
+  </si>
+  <si>
+    <t>while a + b &lt; 26:
+    a = 3 * a + b</t>
+  </si>
+  <si>
+    <t>switch (1)
+{
+    case 1:
+        cout &lt;&lt; '1';
+        break;
+    case 2:
+        cout &lt;&lt; '2';
+        break;
+    default:
+        std::cout &lt;&lt; "default\n";
+        break;
+}</t>
+  </si>
+  <si>
+    <t>match условие:
+    case выражение_1:
+        тело
+    case выражение_2:
+        тело
+    case _:
+       тело</t>
+  </si>
+  <si>
+    <t>switch (условие)
+{
+    case выражение_1:
+        тело
+    case выражение_2:
+        тело
+    default:
+       тело
+}</t>
+  </si>
+  <si>
+    <t>http_code = "418"
+match http_code:
+    case "200":
+        print("OK")
+    case "404":
+        print("Not Found")
+    case _:
+        print("Code not found")</t>
+  </si>
+  <si>
+    <t>case условие of
+        выражение_1 -&gt; тело
+        выражение_2 -&gt; тело
+        _ -&gt; тело</t>
+  </si>
+  <si>
+    <t>f x =
+    case x of
+        0 -&gt; 1
+        1 -&gt; 15
+        2 -&gt; 24
+        _ -&gt; 12 - x</t>
+  </si>
+  <si>
+    <t>fib =
+    let fib' 0 = 0
+        fib' 1 = 1
+        fib' n = fib (n - 1) + fib (n - 2)
+    in  (map fib' [0 ..] !!)</t>
+  </si>
+  <si>
+    <t>функция_от_агрументов  = 
+    let 
+        функция_1 = выражение
+        функция_2 = выражение
+    in выражение</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +202,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -45,15 +254,365 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +668,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +708,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +740,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +890,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="185.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/my_project/common_syntax.xlsx
+++ b/my_project/common_syntax.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Язык программирования</t>
   </si>
@@ -188,6 +188,38 @@
         функция_1 = выражение
         функция_2 = выражение
     in выражение</t>
+  </si>
+  <si>
+    <t>#include &lt;библиотека&gt;
+#include "библиотека"</t>
+  </si>
+  <si>
+    <t>#include &lt;vector&gt;
+#include "my_library.h"</t>
+  </si>
+  <si>
+    <t>import библиотека</t>
+  </si>
+  <si>
+    <t>import numpy
+import my_library.py</t>
+  </si>
+  <si>
+    <t>подключение сторонних библиотек и модулей</t>
+  </si>
+  <si>
+    <t>import my_module</t>
+  </si>
+  <si>
+    <t>символ ; в конце любой инструкции</t>
+  </si>
+  <si>
+    <t>инструкция;</t>
+  </si>
+  <si>
+    <t>int x;
+x = 2 * 5 + 1;
+std::cout &lt;&lt; x;</t>
   </si>
 </sst>
 </file>
@@ -218,7 +250,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -526,12 +558,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,27 +582,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -609,6 +617,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,41 +940,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -965,7 +997,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -980,13 +1012,13 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="185.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1008,77 +1040,97 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="6" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="13" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="26" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>30</v>
       </c>
     </row>

--- a/my_project/common_syntax.xlsx
+++ b/my_project/common_syntax.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Язык программирования</t>
   </si>
@@ -211,15 +211,75 @@
     <t>import my_module</t>
   </si>
   <si>
-    <t>символ ; в конце любой инструкции</t>
-  </si>
-  <si>
     <t>инструкция;</t>
   </si>
   <si>
-    <t>int x;
-x = 2 * 5 + 1;
-std::cout &lt;&lt; x;</t>
+    <t>оператор возведения в степень</t>
+  </si>
+  <si>
+    <t>основание ^ степень  (неотрицательное целочисленное)
+основание ^^ степень (целочисленное)
+основание ** степень (с плавающей запятой)</t>
+  </si>
+  <si>
+    <t>основание ** степень</t>
+  </si>
+  <si>
+    <t>2 ^ 2 
+2 ^^ (-1)
+4 ** 0.5</t>
+  </si>
+  <si>
+    <t>if (5 ** 2 == 25)</t>
+  </si>
+  <si>
+    <t>не обязательны</t>
+  </si>
+  <si>
+    <t>символ ; в конце любой инструкции и внесение блоков операций в { }</t>
+  </si>
+  <si>
+    <t>if (x &lt; 5) {
+    x += 5;
+    std::cout &lt;&lt; x;
+}</t>
+  </si>
+  <si>
+    <t>foo :: Double -&gt; Double;
+foo x = let {
+  s = sin x;
+  c = cos x;
+  } in 2 * s * c</t>
+  </si>
+  <si>
+    <t>class Имя_класса:
+    def init(self):
+        конструктор
+    def имя_функции(self):
+        тело функции</t>
+  </si>
+  <si>
+    <t>class Vehicle(object):
+    def __init__(self, color):
+        self.color = color
+    def brake(self):
+        return "Braking"</t>
+  </si>
+  <si>
+    <t>возможно использование this</t>
+  </si>
+  <si>
+    <t>class Rect {
+    private:
+        int a, b;
+    public:
+        int area() {
+            return this-&gt;a * this-&gt;b;
+        }
+}</t>
+  </si>
+  <si>
+    <t>Ключевое слово self для обращения объекта класса к себе</t>
   </si>
 </sst>
 </file>
@@ -258,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -547,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -558,22 +624,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +698,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +1000,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,41 +1015,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -997,7 +1072,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1012,13 +1087,13 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="185.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1041,7 +1116,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1063,74 +1138,96 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+    <row r="7" spans="1:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="142.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="18" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
